--- a/RIMEDIE/Mat09_2015/GoF_MAT09_DINAperEje.xlsx
+++ b/RIMEDIE/Mat09_2015/GoF_MAT09_DINAperEje.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio 25\Desktop\afchavez-019\RIMEDIE\Mat09_2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\RIMEDIE\Mat09_2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9367730-6EBA-452A-B239-E8C38F8AA3C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="1125" windowWidth="10755" windowHeight="12900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="1125" windowWidth="10755" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="1 SNPA" sheetId="3" r:id="rId1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,19 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,6 +411,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,78 +716,78 @@
     <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="19" t="s">
+    <row r="1" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:6" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="22" t="s">
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="2:6" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="24">
-        <v>32</v>
-      </c>
-      <c r="F4" s="25">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+    <row r="4" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="20">
+        <v>40</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>572539.5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="35">
         <v>605985.69999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+    <row r="8" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>1.7611000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="29">
         <v>9.5700000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="2:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="31">
         <v>3.5349999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
@@ -799,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -813,82 +812,82 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="19" t="s">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="24">
+    <row r="4" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="20">
         <v>28</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="5" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="23">
         <v>397107.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>405608.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+    <row r="8" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>1.6364E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="29">
         <v>4.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:6" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="31">
         <v>3.6980699999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
@@ -898,10 +897,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -914,10 +913,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="14" t="s">
